--- a/web_scraper/processed_judgements/COC-No-684-P-of-2023.xlsx
+++ b/web_scraper/processed_judgements/COC-No-684-P-of-2023.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Respondent No. 1, Aimal Wali Khan, the Provincial President of Awami National Party (ANP), made a public speech on December 21, 2023, in which he made unprovoked malicious statements against the Chief Justice of the Peshawar High Court, hurled life threats, and undermined the dignity and authority of the judiciary. * The speech attracted wide coverage in print and electronic media, including social media. * The statements were in violation of the Contempt of Court Ordinance 2003, which prohibits any act or statement that scandalizes the court or tends to bring the administration of justice into disrepute.  </t>
+          <t xml:space="preserve"> * Respondent No. 1, Aimal Wali Khan, the Provincial President of the Awami National Party (ANP), made a public speech on December 21, 2023, which attracted wide media coverage. * In his speech, he made unprovoked malicious statements against the Chief Justice of the Peshawar High Court, hurled life threats, and undermined the dignity and authority of the judiciary. * The speech was in violation of the Contempt of Court Ordinance 2003, which prohibits any act or statement that scandalizes the court or tends to bring the administration of justice into disrepute.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Court accepted the respondent's heartfelt apology, which was submitted in writing and through a public press conference. * The apology was deemed sufficient to satisfy the Court, and the respondent was relieved of the matter. * The petition was disposed of, and the respondent was not subject to any further action or penalty. * The basis of the decision was the respondent's willingness to make a public apology and the Court's consideration of extending respect to the nanawatey members. * The relevant sections of law applied were the Contempt of Court Ordinance 2003 and the Anti-Terrorism Act 1997. </t>
+          <t xml:space="preserve"> * The Court accepted Aimal Wali Khan's heartfelt apology and relieved him of the matter. * The Court considered the apology and the respondent's willingness to make a public apology, which was done through a press conference. * The Court also accepted the respondent's written apology, which was submitted on his party letterhead. * The petition stands disposed of in the above manner. * The Court did not proceed with contempt of court proceedings against Aimal Wali Khan.  **Basis of Decision:**  * The Court considered the respondent's apology and willingness to make a public apology, which was deemed sufficient to avoid punishment. * The Court also took into account the respondent's willingness to respect and honor the Chief Justice and the judiciary. * The Court applied the Contempt of Court Ordinance 2003 and the Anti-Terrorism Act 1997 in its decision. </t>
         </is>
       </c>
     </row>
